--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1286061.243335174</v>
+        <v>1371343.264647838</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12485967.41741497</v>
+        <v>12448117.04013147</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494268.854866209</v>
+        <v>9502011.478642816</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>175.6809662669686</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>57.08569488870503</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65.73611332320657</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>176.0166538343222</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.85209315371971</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>39.66524342052772</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>411.9846159221721</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>254.8905977352924</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.4083737866022</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>122.2048601023945</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.44973914540226</v>
+        <v>86.58625278316565</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>28.27158985086005</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>138.7067944022645</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8245826357508</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.3697346074943</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>286.2378441683352</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>88.36943801730484</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.4178233201058</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>323.2089455706018</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>89.16240907944153</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.2057510992696</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>297.5165399842849</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>115.6599916347108</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>205.1612915286802</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0178939945673</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.1514361766464</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06455681362596</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>13.92366905961966</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>130.9662282174361</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>191.329104016521</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7971662265956</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>141.2872642759911</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>145.8877526257066</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>100.1838072700264</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>94.66070146402902</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>191.9893302319803</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>17.54378757308816</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>126.749822661279</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>20.29515656310171</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>241.6499314317628</v>
       </c>
       <c r="Y14" t="n">
-        <v>61.26635328439252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1813,25 +1815,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>53.4522744295482</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>271.8036819298777</v>
+        <v>28.93420885558077</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>51.48447105730131</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>55.23722996868952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>224.2131267027227</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681134</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>83.921592809186</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>229.7969491240971</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>51.52044781341791</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>85.17289288835124</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>136.086307988264</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>51.06561173382014</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>81.17400253769658</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.780673098473565</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>96.50675189249507</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>71.6703719699175</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>141.1762660121929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>16.22539291913771</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3080,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.6703719699175</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5705851936306</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>318.8808837491583</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>362.9787634706449</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>184.9613745320184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>155.7123319296398</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>78.35381101375825</v>
       </c>
       <c r="T38" t="n">
-        <v>191.2490250244949</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.451579104185432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>95.66231227784196</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3679,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.32391940463477</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>210.7705473476134</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247589</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>196.98992439718</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>46.79891397838576</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292601</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>184.5496477570983</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>111.4635838901583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>164.6397314457435</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207804</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207804</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207804</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201471</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372652</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372652</v>
+        <v>520.5803211678656</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372652</v>
+        <v>520.5803211678656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>573.9848826230766</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>414.7474276176211</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2128696445061</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6736884669552</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.1341887702423</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843279</v>
+        <v>571.6362168389236</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843279</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843279</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>722.9192922843279</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233.7219182438898</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="C4" t="n">
-        <v>64.78573531598292</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818523</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818524</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>261.744767637162</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318188</v>
+        <v>285.9838492295947</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264756</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768594</v>
+        <v>612.5614882768589</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603746</v>
+        <v>572.4955858318814</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603746</v>
+        <v>572.4955858318814</v>
       </c>
       <c r="U4" t="n">
-        <v>423.1417032603746</v>
+        <v>383.0758008153967</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603746</v>
+        <v>383.0758008153967</v>
       </c>
       <c r="W4" t="n">
-        <v>423.1417032603746</v>
+        <v>383.0758008153967</v>
       </c>
       <c r="X4" t="n">
-        <v>233.7219182438898</v>
+        <v>383.0758008153967</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.7219182438898</v>
+        <v>193.6560157989121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1172.881968523434</v>
+        <v>1125.333810019891</v>
       </c>
       <c r="C5" t="n">
-        <v>1172.881968523434</v>
+        <v>1125.333810019891</v>
       </c>
       <c r="D5" t="n">
-        <v>1172.881968523434</v>
+        <v>1125.333810019891</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.881968523434</v>
+        <v>1125.333810019891</v>
       </c>
       <c r="F5" t="n">
-        <v>761.8960637338266</v>
+        <v>714.3479052302839</v>
       </c>
       <c r="G5" t="n">
-        <v>345.4438024257013</v>
+        <v>298.2018285412212</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>140.3063411473642</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>340.2741230978851</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>625.2536008262823</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>974.0176169100337</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>1333.038807774406</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>1658.717076417808</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>1902.174943012953</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>2036.828915177605</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>2036.828915177605</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.460553127927</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.021300499246</v>
+        <v>1902.072982059825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1172.881968523434</v>
+        <v>1511.933650084013</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205.028141260411</v>
+        <v>676.1532776904253</v>
       </c>
       <c r="C6" t="n">
-        <v>205.028141260411</v>
+        <v>501.7002484092982</v>
       </c>
       <c r="D6" t="n">
-        <v>205.028141260411</v>
+        <v>352.765838748047</v>
       </c>
       <c r="E6" t="n">
-        <v>205.028141260411</v>
+        <v>352.765838748047</v>
       </c>
       <c r="F6" t="n">
-        <v>205.028141260411</v>
+        <v>206.2312807749319</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067708</v>
+        <v>69.29373976906732</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>69.29373976906732</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="J6" t="n">
-        <v>121.7846078506384</v>
+        <v>81.22179997517071</v>
       </c>
       <c r="K6" t="n">
-        <v>243.2077001209172</v>
+        <v>376.9432986792764</v>
       </c>
       <c r="L6" t="n">
-        <v>452.7985733737478</v>
+        <v>621.3967940609018</v>
       </c>
       <c r="M6" t="n">
-        <v>716.7381048692351</v>
+        <v>926.019361217039</v>
       </c>
       <c r="N6" t="n">
-        <v>1002.071975302568</v>
+        <v>1253.113026208808</v>
       </c>
       <c r="O6" t="n">
-        <v>1240.876927054026</v>
+        <v>1530.120031543152</v>
       </c>
       <c r="P6" t="n">
-        <v>1413.205888007736</v>
+        <v>1733.109508449663</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>2026.859916513728</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>2036.828915177605</v>
       </c>
       <c r="S6" t="n">
-        <v>1543.309735648992</v>
+        <v>1896.721042044004</v>
       </c>
       <c r="T6" t="n">
-        <v>1347.691013115832</v>
+        <v>1896.721042044004</v>
       </c>
       <c r="U6" t="n">
-        <v>1119.574596246804</v>
+        <v>1668.615403017993</v>
       </c>
       <c r="V6" t="n">
-        <v>884.4224880150612</v>
+        <v>1433.463294786251</v>
       </c>
       <c r="W6" t="n">
-        <v>630.1851312868596</v>
+        <v>1179.225938058049</v>
       </c>
       <c r="X6" t="n">
-        <v>422.3336310813268</v>
+        <v>971.3744378525162</v>
       </c>
       <c r="Y6" t="n">
-        <v>214.5733323163728</v>
+        <v>763.6141390875623</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.0509834694346</v>
+        <v>338.7663112982809</v>
       </c>
       <c r="C7" t="n">
-        <v>202.0509834694346</v>
+        <v>338.7663112982809</v>
       </c>
       <c r="D7" t="n">
-        <v>202.0509834694346</v>
+        <v>188.6496718859452</v>
       </c>
       <c r="E7" t="n">
-        <v>202.0509834694346</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255854</v>
+        <v>40.7365783035521</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992288</v>
+        <v>52.48822935537046</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>201.6366387116536</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>448.0216872905667</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>718.1892983786066</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>987.3675439511283</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>1219.980925984402</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>1395.501177288495</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>1433.58722120616</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1322.10264079455</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1322.10264079455</v>
       </c>
       <c r="T7" t="n">
-        <v>1090.659418261162</v>
+        <v>1322.10264079455</v>
       </c>
       <c r="U7" t="n">
-        <v>801.5227912532637</v>
+        <v>1032.973505270979</v>
       </c>
       <c r="V7" t="n">
-        <v>801.5227912532637</v>
+        <v>778.289017065092</v>
       </c>
       <c r="W7" t="n">
-        <v>512.105621216303</v>
+        <v>778.289017065092</v>
       </c>
       <c r="X7" t="n">
-        <v>422.8435626129648</v>
+        <v>550.2994661670747</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.0509834694346</v>
+        <v>338.7663112982809</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.30405661487</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.30405661487</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D8" t="n">
-        <v>1572.241017140686</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E8" t="n">
-        <v>1186.452764542442</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>775.4668597528344</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>360.1075152081175</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>59.58575764823379</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>59.58575764823379</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>224.5996469722413</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>522.6512098768872</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>929.3122910400748</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1413.470536479964</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1910.076776881766</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.672706350689</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2720.012290709102</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2937.933815131527</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2979.28788241169</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2862.459608033194</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2655.225980226446</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2401.672551949106</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2401.672551949106</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.903896678991</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.903896678991</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.903896678991</v>
+        <v>1270.784773191981</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3105247710938</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8574954899668</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9230858287156</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.68563082326</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1510728501449</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.6344706515122</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>73.65006982966779</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>59.58575764823379</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>139.049052714307</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>585.199498194495</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L9" t="n">
-        <v>919.2314497012991</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M9" t="n">
-        <v>1328.387850012705</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N9" t="n">
-        <v>1762.782047673234</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>2137.948077538889</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2419.718825484245</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2558.155912045384</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2558.155912045384</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2425.866792633832</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.605071405022</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.527125721593</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.37501748985</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.137660761648</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.286160556116</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.525861791162</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>602.9459299363484</v>
+        <v>449.9329810105326</v>
       </c>
       <c r="C10" t="n">
-        <v>602.9459299363484</v>
+        <v>449.9329810105326</v>
       </c>
       <c r="D10" t="n">
-        <v>602.9459299363484</v>
+        <v>299.8163415981968</v>
       </c>
       <c r="E10" t="n">
-        <v>455.0328363539553</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F10" t="n">
-        <v>308.1428888560449</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>308.1428888560449</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>160.7815225674524</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>59.58575764823379</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>95.79099932867371</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>285.1241699339967</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>582.9318777826123</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>907.3174730817003</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1229.424520383885</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1510.926217589308</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1728.278868240602</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1795.327497124222</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1699.710626958536</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.782010562596</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.782010562596</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1488.061013014023</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1233.376524808136</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="W10" t="n">
-        <v>1233.376524808136</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="X10" t="n">
-        <v>1005.386973910118</v>
+        <v>631.5814458407723</v>
       </c>
       <c r="Y10" t="n">
-        <v>784.5943947665882</v>
+        <v>631.5814458407723</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392158</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324653</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2735.306770649777</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.306770649777</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.306770649777</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5109,13 +5111,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5194,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5230,13 +5232,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>1638.191681214136</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
         <v>1494.054724415577</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5309,19 +5311,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y14" t="n">
-        <v>1636.624422581789</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,13 +5360,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5373,34 +5375,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.8070661251691</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>590.8070661251691</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>590.8070661251691</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>590.8070661251691</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5461,25 +5463,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>590.8070661251691</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1921.870414581994</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C17" t="n">
-        <v>1552.907897641582</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>3072.075344883007</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2698.609586621927</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2308.470254646115</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>697.2814163499066</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C19" t="n">
-        <v>528.3452334219998</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D19" t="n">
-        <v>528.3452334219998</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E19" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,22 +5703,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1653.523416438522</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1398.838928232635</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.712011221694</v>
+        <v>1109.421758195675</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.722460323676</v>
+        <v>881.4322072976571</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.9298811801464</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5771,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952861</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952861</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952861</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952861</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952861</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.336209604299</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1917.382287315189</v>
+        <v>1506.363819949359</v>
       </c>
       <c r="C23" t="n">
-        <v>1548.419770374778</v>
+        <v>1137.401303008947</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W23" t="n">
-        <v>3067.587217616203</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X23" t="n">
-        <v>2694.121459355123</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y23" t="n">
-        <v>2303.982127379311</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6166,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W25" t="n">
-        <v>1637.877378051532</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X25" t="n">
-        <v>1409.887827153515</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1148.130683918831</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C26" t="n">
-        <v>779.1681669784198</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1681669784198</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6242,7 +6244,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2982.16715683353</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2651.104269489959</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2298.335614219845</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>1924.869855958765</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1534.730523982953</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6306,16 +6308,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>752.7622949738579</v>
+        <v>1779.97675966291</v>
       </c>
       <c r="C28" t="n">
-        <v>583.826112045951</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="D28" t="n">
-        <v>433.7094726336153</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="E28" t="n">
-        <v>285.7963790512222</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="F28" t="n">
-        <v>285.7963790512222</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G28" t="n">
-        <v>118.0935424259411</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>3243.611879651901</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>2954.509012777545</v>
       </c>
       <c r="V28" t="n">
-        <v>1672.610059882606</v>
+        <v>2699.824524571658</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.192889845645</v>
+        <v>2410.407354534697</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.203338947628</v>
+        <v>2182.41780363668</v>
       </c>
       <c r="Y28" t="n">
-        <v>934.4107598040977</v>
+        <v>1961.62522449315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324635</v>
+        <v>1281.167484680568</v>
       </c>
       <c r="E29" t="n">
-        <v>66.51211643218342</v>
+        <v>895.3792320823234</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>484.3933272927158</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>69.32087713771227</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218342</v>
@@ -6497,16 +6499,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6545,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2151.073568494536</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>1982.137385566629</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>1832.020746154294</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>1684.1076525719</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>1537.21770507399</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403284</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W31" t="n">
-        <v>2781.504163366323</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X31" t="n">
-        <v>2553.514612468306</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y31" t="n">
-        <v>2332.722033324776</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.7704558796247</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C32" t="n">
-        <v>779.1681669784198</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D32" t="n">
-        <v>779.1681669784198</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>791.4709073899305</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>380.485002600323</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>1308.370295943746</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2151.073568494535</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C34" t="n">
-        <v>1982.137385566628</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D34" t="n">
-        <v>1832.020746154293</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E34" t="n">
-        <v>1684.1076525719</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F34" t="n">
-        <v>1537.217705073989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366322</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X34" t="n">
-        <v>2553.514612468305</v>
+        <v>1410.202130316118</v>
       </c>
       <c r="Y34" t="n">
-        <v>2332.722033324775</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1261.532988317206</v>
+        <v>1969.423143692378</v>
       </c>
       <c r="C35" t="n">
-        <v>892.5704713767946</v>
+        <v>1600.460626751966</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
         <v>892.5704713767946</v>
@@ -6926,61 +6928,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U35" t="n">
-        <v>3072.075344883007</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="V35" t="n">
-        <v>2741.012457539436</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="W35" t="n">
-        <v>2388.243802269322</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="X35" t="n">
-        <v>2014.778044008242</v>
+        <v>2746.162315732312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1648.132828381328</v>
+        <v>2356.0229837565</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7032,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1909.743070445501</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C37" t="n">
-        <v>1909.743070445501</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D37" t="n">
-        <v>1759.626431033165</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E37" t="n">
-        <v>1611.713337450772</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>2635.493193518588</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>2380.808705312701</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W37" t="n">
-        <v>2091.39153527574</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X37" t="n">
-        <v>2091.39153527574</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y37" t="n">
-        <v>2091.39153527574</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>934.5673701373257</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
         <v>934.5673701373257</v>
@@ -7169,55 +7171,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136264</v>
+        <v>3246.46055795891</v>
       </c>
       <c r="T38" t="n">
-        <v>3022.134319778188</v>
+        <v>3040.482810343132</v>
       </c>
       <c r="U38" t="n">
-        <v>2768.603843052024</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.540955708454</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W38" t="n">
-        <v>2084.772300438339</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X38" t="n">
-        <v>1711.306542177259</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y38" t="n">
-        <v>1321.167210201447</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,13 +7268,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>891.2356917920077</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>722.2995088641009</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F40" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214135</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008248</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971288</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X40" t="n">
-        <v>1094.090022971288</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="Y40" t="n">
-        <v>1094.090022971288</v>
+        <v>1072.884156622247</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2303.170539913434</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7424,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993391</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993391</v>
+        <v>2748.885133634735</v>
       </c>
       <c r="W41" t="n">
-        <v>3119.628073993391</v>
+        <v>2396.11647836462</v>
       </c>
       <c r="X41" t="n">
-        <v>2746.162315732311</v>
+        <v>2022.65072010354</v>
       </c>
       <c r="Y41" t="n">
-        <v>2356.022983756499</v>
+        <v>1632.511388127729</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,37 +7505,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399795</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396716</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102581</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022994</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193523</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.322864763049</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888692</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>2278.535509682806</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W43" t="n">
-        <v>1989.118339645845</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X43" t="n">
-        <v>1761.128788747828</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y43" t="n">
-        <v>1540.336209604298</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1736.589769957179</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.627253016768</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1367.627253016768</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>981.8390004185235</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>570.853095628916</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>155.7806454739124</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993391</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267227</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267227</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997113</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>2513.328941997113</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y44" t="n">
-        <v>2123.189610021301</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="45">
@@ -7719,19 +7721,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M45" t="n">
         <v>1212.42807043813</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>661.9578014444411</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>493.0216185165342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>493.0216185165342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7831,25 +7833,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T46" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U46" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V46" t="n">
-        <v>1361.012987209659</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W46" t="n">
-        <v>1071.595817172698</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="X46" t="n">
-        <v>843.6062662746808</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.6062662746808</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,19 +8139,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
-        <v>144.4363991805479</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>82.97369176944316</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>7.153582300173468</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>63.37360602116064</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>149.8696785365169</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5254472322461</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417444</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.578194991141515</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255.1805474109828</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.4571019070332</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>128.0811692467062</v>
       </c>
       <c r="Y14" t="n">
-        <v>324.971585371661</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>172.257380959489</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>82.8793596908053</v>
+        <v>325.7488327651022</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>234.7273671483116</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>231.2857683679015</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>158.5207149607579</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228088</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>124.8860924965858</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>297.7205209039951</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24418,10 +24420,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>114.908863970638</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>93.68940318050065</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>138.3749467384726</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>291.8270912888469</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24737,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>83.32522828944222</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.35543628911073</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>224.0966257588147</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>394.6963327343157</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.35543628911073</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.01406815846414</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>35.80215787152468</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25205,22 +25207,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.25917518540871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>101.2504636735945</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>69.99732345939739</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>30.83395077441759</v>
       </c>
       <c r="T38" t="n">
-        <v>12.66894511512524</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.3804010777519</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>52.95316074037039</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>330.4099222588458</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>116.9817111225215</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>21.59472895491476</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>247.8088504089347</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>185.1814529213707</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>34.97037875641088</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>53.94492190635125</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>945912.1313174987</v>
+        <v>947095.6031776681</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>943019.3876877443</v>
+        <v>950162.9988299458</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780662.2399148428</v>
+        <v>780662.2399148429</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780662.2399148426</v>
+        <v>780662.2399148428</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780662.2399148425</v>
+        <v>780662.2399148428</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780662.2399148428</v>
+        <v>780662.2399148424</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780662.2399148425</v>
+        <v>780662.2399148426</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780662.2399148424</v>
+        <v>780662.2399148426</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780662.2399148423</v>
+        <v>780662.2399148428</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780662.2399148424</v>
+        <v>780662.2399148425</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780662.2399148423</v>
+        <v>780662.2399148426</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="F2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="G2" t="n">
-        <v>426246.3737136508</v>
-      </c>
       <c r="H2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="I2" t="n">
-        <v>426246.3737136509</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="J2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="K2" t="n">
         <v>426246.3737136508</v>
       </c>
       <c r="L2" t="n">
+        <v>426246.3737136508</v>
+      </c>
+      <c r="M2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="M2" t="n">
-        <v>426246.3737136508</v>
-      </c>
       <c r="N2" t="n">
+        <v>426246.3737136506</v>
+      </c>
+      <c r="O2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="O2" t="n">
-        <v>426246.3737136508</v>
-      </c>
       <c r="P2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>356083.2629995348</v>
       </c>
       <c r="D3" t="n">
-        <v>330896.7828797169</v>
+        <v>133886.7361862334</v>
       </c>
       <c r="E3" t="n">
-        <v>82612.2196046234</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153565</v>
+        <v>82790.56074253605</v>
       </c>
       <c r="L3" t="n">
-        <v>81800.74039893913</v>
+        <v>33250.4889982272</v>
       </c>
       <c r="M3" t="n">
-        <v>21575.95392994231</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
-        <v>209253.9124355573</v>
+        <v>183499.9814421226</v>
       </c>
       <c r="D4" t="n">
-        <v>117428.3740805758</v>
+        <v>146359.3674130576</v>
       </c>
       <c r="E4" t="n">
         <v>14040.01085717763</v>
@@ -26448,13 +26450,13 @@
         <v>14040.01085717763</v>
       </c>
       <c r="M4" t="n">
-        <v>14040.01085717765</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="N4" t="n">
-        <v>14040.01085717766</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="O4" t="n">
-        <v>14040.01085717767</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="P4" t="n">
         <v>14040.01085717763</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919238</v>
+        <v>82580.74337893941</v>
       </c>
       <c r="D5" t="n">
-        <v>101129.7088992922</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26488,7 +26490,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26497,19 +26499,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139326</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413360.7734304882</v>
+        <v>-413360.7734304883</v>
       </c>
       <c r="C6" t="n">
-        <v>-30837.99720740545</v>
+        <v>-109012.88165542</v>
       </c>
       <c r="D6" t="n">
-        <v>-36303.7596944078</v>
+        <v>139967.2301260412</v>
       </c>
       <c r="E6" t="n">
-        <v>255287.8026904563</v>
+        <v>155827.0424778892</v>
       </c>
       <c r="F6" t="n">
-        <v>337900.0222950798</v>
+        <v>337900.0222950797</v>
       </c>
       <c r="G6" t="n">
         <v>337900.02229508</v>
       </c>
       <c r="H6" t="n">
+        <v>337900.0222950798</v>
+      </c>
+      <c r="I6" t="n">
+        <v>337900.0222950801</v>
+      </c>
+      <c r="J6" t="n">
+        <v>288835.0775665352</v>
+      </c>
+      <c r="K6" t="n">
+        <v>255109.4615525439</v>
+      </c>
+      <c r="L6" t="n">
+        <v>304649.5332968527</v>
+      </c>
+      <c r="M6" t="n">
+        <v>290347.756501665</v>
+      </c>
+      <c r="N6" t="n">
         <v>337900.0222950797</v>
       </c>
-      <c r="I6" t="n">
-        <v>337900.02229508</v>
-      </c>
-      <c r="J6" t="n">
-        <v>288835.0775665351</v>
-      </c>
-      <c r="K6" t="n">
-        <v>277652.8627035443</v>
-      </c>
-      <c r="L6" t="n">
-        <v>256099.2818961407</v>
-      </c>
-      <c r="M6" t="n">
-        <v>316324.0683651376</v>
-      </c>
-      <c r="N6" t="n">
-        <v>337900.0222950799</v>
-      </c>
       <c r="O6" t="n">
-        <v>337900.0222950799</v>
+        <v>337900.0222950798</v>
       </c>
       <c r="P6" t="n">
-        <v>337900.0222950799</v>
+        <v>337900.0222950798</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>825.3827462495327</v>
       </c>
       <c r="D3" t="n">
-        <v>1019.125370946537</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>509.2072287944012</v>
       </c>
       <c r="D4" t="n">
-        <v>744.8219706029224</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26805,10 +26807,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -26817,19 +26819,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022922</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022922</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>276.9128053366283</v>
       </c>
       <c r="D3" t="n">
-        <v>269.1444144489267</v>
+        <v>108.6821458680067</v>
       </c>
       <c r="E3" t="n">
-        <v>70.65132964676138</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156618</v>
+        <v>321.6816416280814</v>
       </c>
       <c r="D4" t="n">
-        <v>323.2068323209406</v>
+        <v>131.3776033056379</v>
       </c>
       <c r="E4" t="n">
-        <v>86.57948479937022</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>321.6816416280814</v>
       </c>
       <c r="L4" t="n">
-        <v>323.2068323209404</v>
+        <v>131.3776033056379</v>
       </c>
       <c r="M4" t="n">
-        <v>86.57948479937045</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156618</v>
+        <v>321.6816416280814</v>
       </c>
       <c r="L4" t="n">
-        <v>323.2068323209406</v>
+        <v>131.3776033056379</v>
       </c>
       <c r="M4" t="n">
-        <v>86.57948479937022</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2494038052932</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>312.645405789764</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>35.10564402753315</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>19.39294395767908</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377111</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>122.7633798644926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,7 +27554,7 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917628</v>
+        <v>167.1150123749685</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713046</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577498</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.60249161654303</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>82.55400685770192</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>208.5707722909361</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>247.5262405760746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27692,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.0834445044651</v>
+        <v>79.94693086670169</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>95.08928567761465</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.0088160174318</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>150.2028876639205</v>
+        <v>148.9939868380618</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>110.6903745240869</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>198.0779304212288</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>221.5860830227523</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>137.3402173717323</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.166830031988979</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>59.52489609287881</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>265.5206325412414</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>52.52682077275219</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5.146698370578036</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.1532122960961</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.0933119800049</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>268.6749999436375</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31075,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31130,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31139,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31148,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>3.318121592962943</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>33.98171276393175</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>127.921882712704</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>281.6214225507388</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>422.0775095808603</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>523.6244732815001</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>582.6331181603548</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>592.0607311363608</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>559.0661595463355</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>477.1500327200628</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>358.3198031720773</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>208.4319555139587</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>75.61169579964314</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>14.52507727319529</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.2654497274370354</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>1.775351567404655</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>17.1461585588818</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>61.12504300055502</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>167.7317899713319</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>286.6803449874438</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>385.4771023875766</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>449.8335967059953</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>461.7393534891608</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>422.4013003377208</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>339.0142830774732</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>226.622070253268</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>110.2275297727207</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>32.97637670157329</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>7.155912677389814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1167994452239905</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>1.488395116187682</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>13.23318566937776</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>44.76010040317139</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>105.2295347144691</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>172.9244507716234</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>221.2837611830305</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>233.3126998947654</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>227.7650453707933</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>210.3778842407826</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>180.0146238705537</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>124.6327946836794</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>66.9236567696752</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>25.9386676157435</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>6.359506405529184</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.08118518815569183</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.096986415865471</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>41.95826213148226</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>157.9490687976537</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>347.7266008135624</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>521.1520357971478</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>646.5351838216909</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>719.3949659948385</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>731.0355286489163</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>690.2961199761539</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>589.151767834475</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>442.4284418162927</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>257.3573229456096</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>93.36007795153452</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>17.93455803545111</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3277589132692376</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.192080986564249</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>21.17088742287051</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>75.47296379179542</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>207.1035812788618</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>353.9730073786665</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>475.9603914029086</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>555.4233271658625</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>570.1237299222518</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>521.551830167328</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>418.5913245308521</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.817215056868</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>136.1013089728224</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>40.7169428864017</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.835624678300631</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.144215854379227</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.837767062362607</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>16.33941988173301</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>55.26666765723187</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>129.9301313090363</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>213.5151186999465</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>273.2258412534371</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>288.0783405119857</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>281.2284814613617</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>259.7600207783075</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>222.2695727061101</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.887931012927</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>82.63268991314047</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>32.02726780499196</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.852277448276591</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1002418397652332</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32330,7 +32332,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33278,7 +33280,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33752,7 +33754,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34378,7 +34380,7 @@
         <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099056</v>
@@ -34448,13 +34450,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.512347035317</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837921</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34787,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5956149270087</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>99.08507489005466</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
         <v>116.8989542469472</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>100.5755180240525</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>201.9876585358797</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>287.8580583115128</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>352.2868849330821</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>362.6476675397699</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>328.9679481246487</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>245.9170369647932</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>136.0141132976278</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88.94484524048471</v>
+        <v>40.89416330466526</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6495881517968</v>
+        <v>298.7085845496017</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>246.9227226077024</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>307.6995627839769</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>330.3976414058275</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>279.8050558932763</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>205.0398756631429</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.0148132527186</v>
+        <v>296.7175839030955</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.06969562007752</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>11.87035459779632</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>150.6549589457405</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>248.8737864433466</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>272.896576856606</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>271.8972177500219</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>234.9630121548223</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>177.2931831354472</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>38.47075143198505</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>166.6806962868761</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>301.0621847521673</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>410.7687688517037</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>489.0487327675658</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>501.6224650523254</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>460.1979085544672</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>357.9187720792054</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.1227519418432</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>41.77178513147749</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>80.26595461219512</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>450.6570156365536</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>337.4060116230344</v>
+        <v>538.1269048795947</v>
       </c>
       <c r="M9" t="n">
-        <v>413.2892932438442</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>438.7820178389185</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>378.9555857228836</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>284.6169171165218</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.8354409708465</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.57095119236354</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>191.2456268740636</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>300.8158665137532</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>327.6622174738263</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>325.3606538405903</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>284.3451486923472</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>219.5481319710036</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.72588776123264</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36926,7 +36928,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882189</v>
@@ -38096,13 +38098,13 @@
         <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.670908060958</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013304</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004589</v>
